--- a/Target - Brett Reorg.xlsx
+++ b/Target - Brett Reorg.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28240" yWindow="-11760" windowWidth="23400" windowHeight="14180" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="-28240" yWindow="-11760" windowWidth="23400" windowHeight="14180" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" state="hidden" r:id="rId1"/>
@@ -45,8 +45,8 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Trent.Nelsen - Personal View" guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1050" activeSheetId="2"/>
     <customWorkbookView name="Neil.Osten - Personal View" guid="{0F42614E-DC8C-45AE-A084-2485C4FA06F7}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1050" activeSheetId="3"/>
-    <customWorkbookView name="Trent.Nelsen - Personal View" guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1050" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -4124,153 +4124,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4329,6 +4182,153 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5350,13 +5350,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0F42614E-DC8C-45AE-A084-2485C4FA06F7}" scale="80">
+    <customSheetView guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" scale="80">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="A16" sqref="A16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" scale="80">
+    <customSheetView guid="{0F42614E-DC8C-45AE-A084-2485C4FA06F7}" scale="80">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="A16" sqref="A16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6203,52 +6203,52 @@
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="315" t="s">
+      <c r="B1" s="336" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="341" t="s">
+      <c r="C1" s="358" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="342"/>
-      <c r="E1" s="341" t="s">
+      <c r="D1" s="359"/>
+      <c r="E1" s="358" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="342"/>
-      <c r="G1" s="341" t="s">
+      <c r="F1" s="359"/>
+      <c r="G1" s="358" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="342"/>
-      <c r="I1" s="337" t="s">
+      <c r="H1" s="359"/>
+      <c r="I1" s="360" t="s">
         <v>253</v>
       </c>
-      <c r="J1" s="338"/>
-      <c r="K1" s="337" t="s">
+      <c r="J1" s="361"/>
+      <c r="K1" s="360" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="338"/>
-      <c r="M1" s="337" t="s">
+      <c r="L1" s="361"/>
+      <c r="M1" s="360" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="338"/>
-      <c r="O1" s="337" t="s">
+      <c r="N1" s="361"/>
+      <c r="O1" s="360" t="s">
         <v>266</v>
       </c>
-      <c r="P1" s="338"/>
-      <c r="Q1" s="337" t="s">
+      <c r="P1" s="361"/>
+      <c r="Q1" s="360" t="s">
         <v>276</v>
       </c>
-      <c r="R1" s="338"/>
-      <c r="S1" s="339" t="s">
+      <c r="R1" s="361"/>
+      <c r="S1" s="362" t="s">
         <v>491</v>
       </c>
-      <c r="T1" s="340"/>
+      <c r="T1" s="363"/>
       <c r="U1" s="34"/>
     </row>
     <row r="2" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="316"/>
+      <c r="B2" s="337"/>
       <c r="C2" s="140">
         <v>3540</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="A3" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="317"/>
+      <c r="B3" s="338"/>
       <c r="C3" s="142">
         <v>2</v>
       </c>
@@ -6334,7 +6334,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="313" t="s">
+      <c r="A4" s="334" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="145" t="s">
@@ -6399,7 +6399,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="314"/>
+      <c r="A5" s="335"/>
       <c r="B5" s="143" t="s">
         <v>62</v>
       </c>
@@ -6460,7 +6460,7 @@
       <c r="U5" s="20"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="314"/>
+      <c r="A6" s="335"/>
       <c r="B6" s="143" t="s">
         <v>66</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="U6" s="20"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="314"/>
+      <c r="A7" s="335"/>
       <c r="B7" s="143" t="s">
         <v>3</v>
       </c>
@@ -6582,7 +6582,7 @@
       <c r="U7" s="20"/>
     </row>
     <row r="8" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="314"/>
+      <c r="A8" s="335"/>
       <c r="B8" s="144" t="s">
         <v>272</v>
       </c>
@@ -8161,7 +8161,7 @@
       <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="310" t="s">
+      <c r="A37" s="331" t="s">
         <v>521</v>
       </c>
       <c r="B37" s="130" t="s">
@@ -8173,7 +8173,7 @@
       <c r="F37" s="49"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="311"/>
+      <c r="A38" s="332"/>
       <c r="B38" s="133" t="s">
         <v>525</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="F38" s="49"/>
     </row>
     <row r="39" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="312"/>
+      <c r="A39" s="333"/>
       <c r="B39" s="135" t="s">
         <v>526</v>
       </c>
@@ -8193,7 +8193,7 @@
       <c r="F39" s="49"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="310" t="s">
+      <c r="A40" s="331" t="s">
         <v>518</v>
       </c>
       <c r="B40" s="130" t="s">
@@ -8205,7 +8205,7 @@
       <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="311"/>
+      <c r="A41" s="332"/>
       <c r="B41" s="133" t="s">
         <v>506</v>
       </c>
@@ -8215,7 +8215,7 @@
       <c r="F41" s="49"/>
     </row>
     <row r="42" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="312"/>
+      <c r="A42" s="333"/>
       <c r="B42" s="135" t="s">
         <v>510</v>
       </c>
@@ -8225,7 +8225,7 @@
       <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="310" t="s">
+      <c r="A43" s="331" t="s">
         <v>517</v>
       </c>
       <c r="B43" s="130" t="s">
@@ -8237,7 +8237,7 @@
       <c r="F43" s="49"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="311"/>
+      <c r="A44" s="332"/>
       <c r="B44" s="133" t="s">
         <v>522</v>
       </c>
@@ -8247,7 +8247,7 @@
       <c r="F44" s="49"/>
     </row>
     <row r="45" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="312"/>
+      <c r="A45" s="333"/>
       <c r="B45" s="135" t="s">
         <v>509</v>
       </c>
@@ -8257,7 +8257,7 @@
       <c r="F45" s="49"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="310" t="s">
+      <c r="A46" s="331" t="s">
         <v>519</v>
       </c>
       <c r="B46" s="130" t="s">
@@ -8269,7 +8269,7 @@
       <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="311"/>
+      <c r="A47" s="332"/>
       <c r="B47" s="133" t="s">
         <v>506</v>
       </c>
@@ -8279,7 +8279,7 @@
       <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="312"/>
+      <c r="A48" s="333"/>
       <c r="B48" s="135" t="s">
         <v>520</v>
       </c>
@@ -8310,21 +8310,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
@@ -8397,10 +8397,10 @@
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="337" t="s">
+      <c r="B1" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="338"/>
+      <c r="C1" s="361"/>
       <c r="D1" s="149"/>
       <c r="E1" s="34"/>
     </row>
@@ -8408,11 +8408,11 @@
       <c r="A2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="334">
+      <c r="B2" s="355">
         <f>B3*1800</f>
         <v>54000</v>
       </c>
-      <c r="C2" s="335"/>
+      <c r="C2" s="356"/>
       <c r="D2" s="154"/>
       <c r="E2" s="33"/>
     </row>
@@ -8420,10 +8420,10 @@
       <c r="A3" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="329">
+      <c r="B3" s="350">
         <v>30</v>
       </c>
-      <c r="C3" s="330"/>
+      <c r="C3" s="351"/>
       <c r="D3" s="152"/>
       <c r="E3" s="33"/>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="313" t="s">
+      <c r="A5" s="334" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="160" t="s">
@@ -8458,7 +8458,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="314"/>
+      <c r="A6" s="335"/>
       <c r="B6" s="161" t="s">
         <v>62</v>
       </c>
@@ -8471,7 +8471,7 @@
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="314"/>
+      <c r="A7" s="335"/>
       <c r="B7" s="161" t="s">
         <v>66</v>
       </c>
@@ -8484,7 +8484,7 @@
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="314"/>
+      <c r="A8" s="335"/>
       <c r="B8" s="161" t="s">
         <v>3</v>
       </c>
@@ -8497,7 +8497,7 @@
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="314"/>
+      <c r="A9" s="335"/>
       <c r="B9" s="162" t="s">
         <v>272</v>
       </c>
@@ -8510,7 +8510,7 @@
       <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="314"/>
+      <c r="A10" s="335"/>
       <c r="B10" s="163" t="s">
         <v>119</v>
       </c>
@@ -8523,7 +8523,7 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="314"/>
+      <c r="A11" s="335"/>
       <c r="B11" s="163" t="s">
         <v>13</v>
       </c>
@@ -8536,7 +8536,7 @@
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="314"/>
+      <c r="A12" s="335"/>
       <c r="B12" s="161" t="s">
         <v>12</v>
       </c>
@@ -8549,7 +8549,7 @@
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="314"/>
+      <c r="A13" s="335"/>
       <c r="B13" s="20" t="s">
         <v>73</v>
       </c>
@@ -8562,7 +8562,7 @@
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="314"/>
+      <c r="A14" s="335"/>
       <c r="B14" s="20" t="s">
         <v>75</v>
       </c>
@@ -8575,7 +8575,7 @@
       <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="314"/>
+      <c r="A15" s="335"/>
       <c r="B15" s="20" t="s">
         <v>285</v>
       </c>
@@ -8588,7 +8588,7 @@
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="314"/>
+      <c r="A16" s="335"/>
       <c r="B16" s="20" t="s">
         <v>286</v>
       </c>
@@ -8601,7 +8601,7 @@
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="314"/>
+      <c r="A17" s="335"/>
       <c r="B17" s="161" t="s">
         <v>269</v>
       </c>
@@ -8614,7 +8614,7 @@
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="314"/>
+      <c r="A18" s="335"/>
       <c r="B18" s="20" t="s">
         <v>288</v>
       </c>
@@ -8625,50 +8625,50 @@
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="314"/>
+      <c r="A19" s="335"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="150"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="331" t="s">
+      <c r="A20" s="352" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="320" t="s">
+      <c r="B20" s="341" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="321"/>
+      <c r="C20" s="342"/>
       <c r="D20" s="164"/>
-      <c r="E20" s="326"/>
+      <c r="E20" s="347"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="332"/>
-      <c r="B21" s="322"/>
-      <c r="C21" s="323"/>
+      <c r="A21" s="353"/>
+      <c r="B21" s="343"/>
+      <c r="C21" s="344"/>
       <c r="D21" s="118"/>
-      <c r="E21" s="327"/>
+      <c r="E21" s="348"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="332"/>
-      <c r="B22" s="322"/>
-      <c r="C22" s="323"/>
+      <c r="A22" s="353"/>
+      <c r="B22" s="343"/>
+      <c r="C22" s="344"/>
       <c r="D22" s="118"/>
-      <c r="E22" s="327"/>
+      <c r="E22" s="348"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="332"/>
-      <c r="B23" s="322"/>
-      <c r="C23" s="323"/>
+      <c r="A23" s="353"/>
+      <c r="B23" s="343"/>
+      <c r="C23" s="344"/>
       <c r="D23" s="118"/>
-      <c r="E23" s="327"/>
+      <c r="E23" s="348"/>
     </row>
     <row r="24" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="333"/>
-      <c r="B24" s="324"/>
-      <c r="C24" s="325"/>
+      <c r="A24" s="354"/>
+      <c r="B24" s="345"/>
+      <c r="C24" s="346"/>
       <c r="D24" s="165"/>
-      <c r="E24" s="328"/>
+      <c r="E24" s="349"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
@@ -8795,7 +8795,7 @@
     </row>
     <row r="48" spans="5:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="310" t="s">
+      <c r="A49" s="331" t="s">
         <v>521</v>
       </c>
       <c r="B49" s="130" t="s">
@@ -8806,7 +8806,7 @@
       <c r="E49" s="132"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="311"/>
+      <c r="A50" s="332"/>
       <c r="B50" s="133" t="s">
         <v>525</v>
       </c>
@@ -8815,7 +8815,7 @@
       <c r="E50" s="134"/>
     </row>
     <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="312"/>
+      <c r="A51" s="333"/>
       <c r="B51" s="135" t="s">
         <v>526</v>
       </c>
@@ -9019,10 +9019,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="317" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="297"/>
+      <c r="B1" s="318"/>
       <c r="C1" s="191" t="s">
         <v>42</v>
       </c>
@@ -9079,10 +9079,10 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="319" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="299"/>
+      <c r="B2" s="320"/>
       <c r="C2" s="73">
         <v>33000</v>
       </c>
@@ -9136,10 +9136,10 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="321" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="301"/>
+      <c r="B3" s="322"/>
       <c r="C3" s="86">
         <v>15</v>
       </c>
@@ -9314,7 +9314,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="306" t="s">
+      <c r="A6" s="327" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="189" t="s">
@@ -9364,7 +9364,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="303"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="190" t="s">
         <v>62</v>
       </c>
@@ -9412,7 +9412,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="303"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="190" t="s">
         <v>66</v>
       </c>
@@ -9460,7 +9460,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="303"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="190" t="s">
         <v>467</v>
       </c>
@@ -9508,7 +9508,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="303" t="s">
+      <c r="A10" s="324" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="192" t="s">
@@ -9558,7 +9558,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="303"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="69" t="s">
         <v>406</v>
       </c>
@@ -9606,7 +9606,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="303"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="69" t="s">
         <v>461</v>
       </c>
@@ -9654,7 +9654,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="303"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="203" t="s">
         <v>80</v>
       </c>
@@ -9702,7 +9702,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="303"/>
+      <c r="A14" s="324"/>
       <c r="B14" s="203" t="s">
         <v>405</v>
       </c>
@@ -9750,7 +9750,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="303"/>
+      <c r="A15" s="324"/>
       <c r="B15" s="203" t="s">
         <v>88</v>
       </c>
@@ -9798,7 +9798,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="303"/>
+      <c r="A16" s="324"/>
       <c r="B16" s="203" t="s">
         <v>90</v>
       </c>
@@ -9846,7 +9846,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="303"/>
+      <c r="A17" s="324"/>
       <c r="B17" s="203" t="s">
         <v>91</v>
       </c>
@@ -9894,7 +9894,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="303"/>
+      <c r="A18" s="324"/>
       <c r="B18" s="203" t="s">
         <v>402</v>
       </c>
@@ -9942,7 +9942,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="303"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="203" t="s">
         <v>401</v>
       </c>
@@ -9990,7 +9990,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="303"/>
+      <c r="A20" s="324"/>
       <c r="B20" s="203" t="s">
         <v>403</v>
       </c>
@@ -10038,7 +10038,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="303"/>
+      <c r="A21" s="324"/>
       <c r="B21" s="68" t="s">
         <v>552</v>
       </c>
@@ -10086,7 +10086,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="303"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="68" t="s">
         <v>13</v>
       </c>
@@ -10134,7 +10134,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="303"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="68" t="s">
         <v>400</v>
       </c>
@@ -10182,7 +10182,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="303"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="68" t="s">
         <v>397</v>
       </c>
@@ -10230,7 +10230,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="303"/>
+      <c r="A25" s="324"/>
       <c r="B25" s="203" t="s">
         <v>398</v>
       </c>
@@ -10278,7 +10278,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="303"/>
+      <c r="A26" s="324"/>
       <c r="B26" s="203" t="s">
         <v>93</v>
       </c>
@@ -10326,7 +10326,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="303"/>
+      <c r="A27" s="324"/>
       <c r="B27" s="203" t="s">
         <v>95</v>
       </c>
@@ -10374,7 +10374,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="303"/>
+      <c r="A28" s="324"/>
       <c r="B28" s="203" t="s">
         <v>98</v>
       </c>
@@ -10422,7 +10422,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="303"/>
+      <c r="A29" s="324"/>
       <c r="B29" s="203" t="s">
         <v>100</v>
       </c>
@@ -10470,7 +10470,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="303"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="203" t="s">
         <v>102</v>
       </c>
@@ -10518,7 +10518,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="303"/>
+      <c r="A31" s="324"/>
       <c r="B31" s="203" t="s">
         <v>103</v>
       </c>
@@ -10566,7 +10566,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="303"/>
+      <c r="A32" s="324"/>
       <c r="B32" s="68" t="s">
         <v>101</v>
       </c>
@@ -10614,7 +10614,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="303"/>
+      <c r="A33" s="324"/>
       <c r="B33" s="68" t="s">
         <v>118</v>
       </c>
@@ -10662,7 +10662,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="303"/>
+      <c r="A34" s="324"/>
       <c r="B34" s="68" t="s">
         <v>117</v>
       </c>
@@ -10710,7 +10710,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="303"/>
+      <c r="A35" s="324"/>
       <c r="B35" s="68" t="s">
         <v>87</v>
       </c>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="303"/>
+      <c r="A36" s="324"/>
       <c r="B36" s="203" t="s">
         <v>50</v>
       </c>
@@ -10806,7 +10806,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="303"/>
+      <c r="A37" s="324"/>
       <c r="B37" s="203" t="s">
         <v>89</v>
       </c>
@@ -10854,7 +10854,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="303"/>
+      <c r="A38" s="324"/>
       <c r="B38" s="203" t="s">
         <v>79</v>
       </c>
@@ -10902,7 +10902,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" s="205" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="303"/>
+      <c r="A39" s="324"/>
       <c r="B39" s="203" t="s">
         <v>85</v>
       </c>
@@ -10950,7 +10950,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="303"/>
+      <c r="A40" s="324"/>
       <c r="B40" s="68" t="s">
         <v>99</v>
       </c>
@@ -11046,14 +11046,14 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="304" t="s">
+      <c r="A42" s="325" t="s">
         <v>116</v>
       </c>
       <c r="B42" s="70"/>
-      <c r="C42" s="294" t="s">
+      <c r="C42" s="315" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="307" t="s">
+      <c r="D42" s="328" t="s">
         <v>121</v>
       </c>
       <c r="E42" s="79"/>
@@ -11070,10 +11070,10 @@
       <c r="P42" s="82"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="304"/>
+      <c r="A43" s="325"/>
       <c r="B43" s="70"/>
-      <c r="C43" s="294"/>
-      <c r="D43" s="308"/>
+      <c r="C43" s="315"/>
+      <c r="D43" s="329"/>
       <c r="E43" s="79"/>
       <c r="F43" s="74"/>
       <c r="G43" s="74"/>
@@ -11088,10 +11088,10 @@
       <c r="P43" s="82"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="304"/>
+      <c r="A44" s="325"/>
       <c r="B44" s="70"/>
-      <c r="C44" s="294"/>
-      <c r="D44" s="308"/>
+      <c r="C44" s="315"/>
+      <c r="D44" s="329"/>
       <c r="E44" s="79"/>
       <c r="F44" s="74"/>
       <c r="G44" s="74"/>
@@ -11106,10 +11106,10 @@
       <c r="P44" s="82"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="304"/>
+      <c r="A45" s="325"/>
       <c r="B45" s="70"/>
-      <c r="C45" s="294"/>
-      <c r="D45" s="308"/>
+      <c r="C45" s="315"/>
+      <c r="D45" s="329"/>
       <c r="E45" s="79"/>
       <c r="F45" s="74"/>
       <c r="G45" s="74"/>
@@ -11124,10 +11124,10 @@
       <c r="P45" s="82"/>
     </row>
     <row r="46" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="305"/>
+      <c r="A46" s="326"/>
       <c r="B46" s="71"/>
-      <c r="C46" s="295"/>
-      <c r="D46" s="309"/>
+      <c r="C46" s="316"/>
+      <c r="D46" s="330"/>
       <c r="E46" s="80"/>
       <c r="F46" s="75"/>
       <c r="G46" s="75"/>
@@ -11288,12 +11288,12 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="302" t="s">
+      <c r="A56" s="323" t="s">
         <v>234</v>
       </c>
-      <c r="B56" s="302"/>
-      <c r="C56" s="302"/>
-      <c r="D56" s="302"/>
+      <c r="B56" s="323"/>
+      <c r="C56" s="323"/>
+      <c r="D56" s="323"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
@@ -14509,13 +14509,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0F42614E-DC8C-45AE-A084-2485C4FA06F7}" scale="80">
-      <selection sqref="A1:B1"/>
+    <customSheetView guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" scale="80">
+      <selection activeCell="C10" sqref="C10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" scale="80">
-      <selection activeCell="C10" sqref="C10"/>
+    <customSheetView guid="{0F42614E-DC8C-45AE-A084-2485C4FA06F7}" scale="80">
+      <selection sqref="A1:B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
     </customSheetView>
@@ -14689,7 +14689,7 @@
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="315" t="s">
+      <c r="B1" s="336" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="117" t="s">
@@ -14734,7 +14734,7 @@
       <c r="A2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="316"/>
+      <c r="B2" s="337"/>
       <c r="C2" s="92">
         <v>3540</v>
       </c>
@@ -14769,7 +14769,7 @@
       <c r="A3" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="317"/>
+      <c r="B3" s="338"/>
       <c r="C3" s="90">
         <v>2</v>
       </c>
@@ -14891,7 +14891,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="313" t="s">
+      <c r="A6" s="334" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="145" t="s">
@@ -14937,7 +14937,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="314"/>
+      <c r="A7" s="335"/>
       <c r="B7" s="143" t="s">
         <v>62</v>
       </c>
@@ -14983,7 +14983,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="314"/>
+      <c r="A8" s="335"/>
       <c r="B8" s="143" t="s">
         <v>66</v>
       </c>
@@ -15017,7 +15017,7 @@
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="314"/>
+      <c r="A9" s="335"/>
       <c r="B9" s="143" t="s">
         <v>3</v>
       </c>
@@ -15051,7 +15051,7 @@
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="314"/>
+      <c r="A10" s="335"/>
       <c r="B10" s="144" t="s">
         <v>272</v>
       </c>
@@ -15824,7 +15824,7 @@
     </row>
     <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="310" t="s">
+      <c r="A35" s="331" t="s">
         <v>521</v>
       </c>
       <c r="B35" s="130" t="s">
@@ -15834,7 +15834,7 @@
       <c r="D35" s="132"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="311"/>
+      <c r="A36" s="332"/>
       <c r="B36" s="133" t="s">
         <v>525</v>
       </c>
@@ -15842,7 +15842,7 @@
       <c r="D36" s="134"/>
     </row>
     <row r="37" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="312"/>
+      <c r="A37" s="333"/>
       <c r="B37" s="135" t="s">
         <v>526</v>
       </c>
@@ -15850,7 +15850,7 @@
       <c r="D37" s="137"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="310" t="s">
+      <c r="A38" s="331" t="s">
         <v>518</v>
       </c>
       <c r="B38" s="130" t="s">
@@ -15863,7 +15863,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="311"/>
+      <c r="A39" s="332"/>
       <c r="B39" s="133" t="s">
         <v>506</v>
       </c>
@@ -15871,7 +15871,7 @@
       <c r="D39" s="134"/>
     </row>
     <row r="40" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="312"/>
+      <c r="A40" s="333"/>
       <c r="B40" s="135" t="s">
         <v>510</v>
       </c>
@@ -15879,7 +15879,7 @@
       <c r="D40" s="137"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="310" t="s">
+      <c r="A41" s="331" t="s">
         <v>517</v>
       </c>
       <c r="B41" s="130" t="s">
@@ -15889,7 +15889,7 @@
       <c r="D41" s="132"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="311"/>
+      <c r="A42" s="332"/>
       <c r="B42" s="133" t="s">
         <v>522</v>
       </c>
@@ -15897,7 +15897,7 @@
       <c r="D42" s="134"/>
     </row>
     <row r="43" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="312"/>
+      <c r="A43" s="333"/>
       <c r="B43" s="135" t="s">
         <v>509</v>
       </c>
@@ -15905,7 +15905,7 @@
       <c r="D43" s="137"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="310" t="s">
+      <c r="A44" s="331" t="s">
         <v>519</v>
       </c>
       <c r="B44" s="130" t="s">
@@ -15915,7 +15915,7 @@
       <c r="D44" s="132"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="311"/>
+      <c r="A45" s="332"/>
       <c r="B45" s="133" t="s">
         <v>506</v>
       </c>
@@ -15923,7 +15923,7 @@
       <c r="D45" s="134"/>
     </row>
     <row r="46" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="312"/>
+      <c r="A46" s="333"/>
       <c r="B46" s="135" t="s">
         <v>520</v>
       </c>
@@ -15950,15 +15950,15 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" scale="80">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{0F42614E-DC8C-45AE-A084-2485C4FA06F7}" scale="80">
       <pane xSplit="2" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="R11" sqref="R11:R12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" scale="80">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
     </customSheetView>
@@ -16039,31 +16039,31 @@
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="318" t="s">
+      <c r="B1" s="339" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="319"/>
+      <c r="C1" s="340"/>
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="334">
+      <c r="B2" s="355">
         <f>B3*1800</f>
         <v>54000</v>
       </c>
-      <c r="C2" s="335"/>
+      <c r="C2" s="356"/>
       <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="329">
+      <c r="B3" s="350">
         <v>30</v>
       </c>
-      <c r="C3" s="330"/>
+      <c r="C3" s="351"/>
       <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -16106,7 +16106,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="313" t="s">
+      <c r="A7" s="334" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -16120,7 +16120,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="314"/>
+      <c r="A8" s="335"/>
       <c r="B8" s="20" t="s">
         <v>62</v>
       </c>
@@ -16130,7 +16130,7 @@
       <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="314"/>
+      <c r="A9" s="335"/>
       <c r="B9" s="20" t="s">
         <v>66</v>
       </c>
@@ -16140,7 +16140,7 @@
       <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="314"/>
+      <c r="A10" s="335"/>
       <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
@@ -16150,7 +16150,7 @@
       <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="314"/>
+      <c r="A11" s="335"/>
       <c r="B11" s="23" t="s">
         <v>272</v>
       </c>
@@ -16160,7 +16160,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="314"/>
+      <c r="A12" s="335"/>
       <c r="B12" s="25" t="s">
         <v>119</v>
       </c>
@@ -16170,7 +16170,7 @@
       <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="314"/>
+      <c r="A13" s="335"/>
       <c r="B13" s="25" t="s">
         <v>13</v>
       </c>
@@ -16180,7 +16180,7 @@
       <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="314"/>
+      <c r="A14" s="335"/>
       <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
@@ -16190,7 +16190,7 @@
       <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="314"/>
+      <c r="A15" s="335"/>
       <c r="B15" s="20" t="s">
         <v>73</v>
       </c>
@@ -16200,7 +16200,7 @@
       <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="314"/>
+      <c r="A16" s="335"/>
       <c r="B16" s="20" t="s">
         <v>75</v>
       </c>
@@ -16210,7 +16210,7 @@
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="314"/>
+      <c r="A17" s="335"/>
       <c r="B17" s="20" t="s">
         <v>285</v>
       </c>
@@ -16220,7 +16220,7 @@
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="314"/>
+      <c r="A18" s="335"/>
       <c r="B18" s="20" t="s">
         <v>286</v>
       </c>
@@ -16230,7 +16230,7 @@
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="314"/>
+      <c r="A19" s="335"/>
       <c r="B19" s="20" t="s">
         <v>269</v>
       </c>
@@ -16240,7 +16240,7 @@
       <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="314"/>
+      <c r="A20" s="335"/>
       <c r="B20" s="20" t="s">
         <v>288</v>
       </c>
@@ -16248,56 +16248,56 @@
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="314"/>
+      <c r="A21" s="335"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="314"/>
+      <c r="A22" s="335"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="314"/>
+      <c r="A23" s="335"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="331" t="s">
+      <c r="A24" s="352" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="320" t="s">
+      <c r="B24" s="341" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="321"/>
-      <c r="D24" s="326"/>
+      <c r="C24" s="342"/>
+      <c r="D24" s="347"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="332"/>
-      <c r="B25" s="322"/>
-      <c r="C25" s="323"/>
-      <c r="D25" s="327"/>
+      <c r="A25" s="353"/>
+      <c r="B25" s="343"/>
+      <c r="C25" s="344"/>
+      <c r="D25" s="348"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="332"/>
-      <c r="B26" s="322"/>
-      <c r="C26" s="323"/>
-      <c r="D26" s="327"/>
+      <c r="A26" s="353"/>
+      <c r="B26" s="343"/>
+      <c r="C26" s="344"/>
+      <c r="D26" s="348"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="332"/>
-      <c r="B27" s="322"/>
-      <c r="C27" s="323"/>
-      <c r="D27" s="327"/>
+      <c r="A27" s="353"/>
+      <c r="B27" s="343"/>
+      <c r="C27" s="344"/>
+      <c r="D27" s="348"/>
     </row>
     <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="333"/>
-      <c r="B28" s="324"/>
-      <c r="C28" s="325"/>
-      <c r="D28" s="328"/>
+      <c r="A28" s="354"/>
+      <c r="B28" s="345"/>
+      <c r="C28" s="346"/>
+      <c r="D28" s="349"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
@@ -16379,7 +16379,7 @@
     </row>
     <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="310" t="s">
+      <c r="A48" s="331" t="s">
         <v>521</v>
       </c>
       <c r="B48" s="130" t="s">
@@ -16389,7 +16389,7 @@
       <c r="D48" s="132"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="311"/>
+      <c r="A49" s="332"/>
       <c r="B49" s="133" t="s">
         <v>525</v>
       </c>
@@ -16397,7 +16397,7 @@
       <c r="D49" s="134"/>
     </row>
     <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="312"/>
+      <c r="A50" s="333"/>
       <c r="B50" s="135" t="s">
         <v>526</v>
       </c>
@@ -16406,13 +16406,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0F42614E-DC8C-45AE-A084-2485C4FA06F7}" scale="70">
+    <customSheetView guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" scale="70">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" scale="70">
+    <customSheetView guid="{0F42614E-DC8C-45AE-A084-2485C4FA06F7}" scale="70">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16605,10 +16605,10 @@
         <v>42</v>
       </c>
       <c r="C2" s="269"/>
-      <c r="D2" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E2" s="362" t="s">
+      <c r="D2" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F2" s="270"/>
@@ -16637,41 +16637,41 @@
       <c r="S2" s="270" t="s">
         <v>399</v>
       </c>
-      <c r="T2" s="361" t="s">
-        <v>399</v>
-      </c>
-      <c r="U2" s="361" t="s">
-        <v>399</v>
-      </c>
-      <c r="V2" s="361" t="s">
-        <v>399</v>
-      </c>
-      <c r="W2" s="361" t="s">
-        <v>399</v>
-      </c>
-      <c r="X2" s="361" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y2" s="361" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z2" s="361" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA2" s="361" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB2" s="361" t="s">
+      <c r="T2" s="312" t="s">
+        <v>399</v>
+      </c>
+      <c r="U2" s="312" t="s">
+        <v>399</v>
+      </c>
+      <c r="V2" s="312" t="s">
+        <v>399</v>
+      </c>
+      <c r="W2" s="312" t="s">
+        <v>399</v>
+      </c>
+      <c r="X2" s="312" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y2" s="312" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z2" s="312" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA2" s="312" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB2" s="312" t="s">
         <v>399</v>
       </c>
       <c r="AC2" s="270" t="s">
         <v>399</v>
       </c>
-      <c r="AD2" s="362" t="s">
+      <c r="AD2" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE2" s="270"/>
-      <c r="AF2" s="362" t="s">
+      <c r="AF2" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG2" s="270"/>
@@ -16688,10 +16688,10 @@
         <v>43</v>
       </c>
       <c r="C3" s="274"/>
-      <c r="D3" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E3" s="362" t="s">
+      <c r="D3" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F3" s="275"/>
@@ -16720,41 +16720,41 @@
       <c r="S3" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T3" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U3" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V3" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W3" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X3" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y3" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z3" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA3" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB3" s="362" t="s">
+      <c r="T3" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U3" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V3" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W3" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X3" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y3" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z3" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA3" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB3" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC3" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AD3" s="362" t="s">
+      <c r="AD3" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE3" s="275"/>
-      <c r="AF3" s="362" t="s">
+      <c r="AF3" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG3" s="275"/>
@@ -16771,10 +16771,10 @@
         <v>44</v>
       </c>
       <c r="C4" s="274"/>
-      <c r="D4" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E4" s="362" t="s">
+      <c r="D4" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F4" s="275"/>
@@ -16809,43 +16809,43 @@
       <c r="S4" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T4" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U4" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V4" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W4" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X4" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y4" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z4" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA4" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB4" s="362" t="s">
+      <c r="T4" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U4" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V4" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W4" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X4" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y4" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z4" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA4" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB4" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC4" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AD4" s="362" t="s">
+      <c r="AD4" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE4" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AF4" s="362" t="s">
+      <c r="AF4" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG4" s="275" t="s">
@@ -16866,10 +16866,10 @@
         <v>45</v>
       </c>
       <c r="C5" s="274"/>
-      <c r="D5" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E5" s="362" t="s">
+      <c r="D5" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F5" s="275"/>
@@ -16900,43 +16900,43 @@
       <c r="S5" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T5" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U5" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V5" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W5" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X5" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y5" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z5" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA5" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB5" s="362" t="s">
+      <c r="T5" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U5" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V5" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W5" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X5" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y5" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z5" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA5" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB5" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC5" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AD5" s="362" t="s">
+      <c r="AD5" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE5" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AF5" s="362" t="s">
+      <c r="AF5" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG5" s="275" t="s">
@@ -16957,10 +16957,10 @@
         <v>46</v>
       </c>
       <c r="C6" s="274"/>
-      <c r="D6" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E6" s="362" t="s">
+      <c r="D6" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F6" s="275"/>
@@ -16995,43 +16995,43 @@
       <c r="S6" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T6" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U6" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V6" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W6" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X6" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y6" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z6" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA6" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB6" s="362" t="s">
+      <c r="T6" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U6" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V6" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W6" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X6" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y6" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z6" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA6" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB6" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC6" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AD6" s="362" t="s">
+      <c r="AD6" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE6" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AF6" s="362" t="s">
+      <c r="AF6" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG6" s="275" t="s">
@@ -17052,10 +17052,10 @@
         <v>47</v>
       </c>
       <c r="C7" s="274"/>
-      <c r="D7" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E7" s="362" t="s">
+      <c r="D7" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F7" s="275"/>
@@ -17084,43 +17084,43 @@
       <c r="S7" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T7" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U7" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V7" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W7" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X7" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y7" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z7" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA7" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB7" s="362" t="s">
+      <c r="T7" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U7" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V7" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W7" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X7" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y7" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z7" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA7" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB7" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC7" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AD7" s="362" t="s">
+      <c r="AD7" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE7" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AF7" s="362" t="s">
+      <c r="AF7" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG7" s="275" t="s">
@@ -17141,10 +17141,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="274"/>
-      <c r="D8" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E8" s="362" t="s">
+      <c r="D8" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F8" s="275"/>
@@ -17179,43 +17179,43 @@
       <c r="S8" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T8" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U8" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V8" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W8" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X8" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y8" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z8" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA8" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB8" s="362" t="s">
+      <c r="T8" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U8" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V8" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W8" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X8" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y8" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z8" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA8" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB8" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC8" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AD8" s="362" t="s">
+      <c r="AD8" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE8" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AF8" s="362" t="s">
+      <c r="AF8" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG8" s="275" t="s">
@@ -17236,10 +17236,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="274"/>
-      <c r="D9" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E9" s="362" t="s">
+      <c r="D9" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F9" s="275"/>
@@ -17272,41 +17272,41 @@
       <c r="S9" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T9" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U9" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V9" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W9" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X9" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y9" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z9" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA9" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB9" s="362" t="s">
+      <c r="T9" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U9" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V9" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W9" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X9" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y9" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z9" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA9" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB9" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC9" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AD9" s="362" t="s">
+      <c r="AD9" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE9" s="275"/>
-      <c r="AF9" s="362" t="s">
+      <c r="AF9" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG9" s="275"/>
@@ -17323,10 +17323,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="274"/>
-      <c r="D10" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E10" s="362" t="s">
+      <c r="D10" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E10" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F10" s="275"/>
@@ -17365,43 +17365,43 @@
       <c r="S10" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T10" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U10" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V10" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W10" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X10" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y10" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z10" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA10" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB10" s="362" t="s">
+      <c r="T10" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U10" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V10" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W10" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X10" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y10" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z10" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA10" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB10" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC10" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AD10" s="362" t="s">
+      <c r="AD10" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE10" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AF10" s="362" t="s">
+      <c r="AF10" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG10" s="275" t="s">
@@ -17422,10 +17422,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="274"/>
-      <c r="D11" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E11" s="362" t="s">
+      <c r="D11" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E11" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F11" s="275"/>
@@ -17454,41 +17454,41 @@
       <c r="S11" s="276" t="s">
         <v>603</v>
       </c>
-      <c r="T11" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U11" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V11" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W11" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X11" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y11" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z11" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA11" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB11" s="362" t="s">
+      <c r="T11" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U11" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V11" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W11" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X11" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y11" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z11" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA11" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB11" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC11" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AD11" s="362" t="s">
+      <c r="AD11" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE11" s="275"/>
-      <c r="AF11" s="362" t="s">
+      <c r="AF11" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG11" s="275"/>
@@ -17505,10 +17505,10 @@
         <v>239</v>
       </c>
       <c r="C12" s="274"/>
-      <c r="D12" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E12" s="362" t="s">
+      <c r="D12" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E12" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F12" s="275"/>
@@ -17537,43 +17537,43 @@
       <c r="S12" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T12" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U12" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V12" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W12" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X12" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y12" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z12" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA12" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB12" s="362" t="s">
+      <c r="T12" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U12" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V12" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W12" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X12" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y12" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z12" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA12" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB12" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC12" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AD12" s="362" t="s">
+      <c r="AD12" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE12" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AF12" s="362" t="s">
+      <c r="AF12" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG12" s="275"/>
@@ -17590,10 +17590,10 @@
       <c r="C13" s="274" t="s">
         <v>399</v>
       </c>
-      <c r="D13" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E13" s="362" t="s">
+      <c r="D13" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F13" s="274" t="s">
@@ -17638,43 +17638,43 @@
       <c r="S13" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T13" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U13" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V13" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W13" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X13" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y13" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z13" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA13" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB13" s="362" t="s">
+      <c r="T13" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U13" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V13" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W13" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X13" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y13" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z13" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA13" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB13" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC13" s="275" t="s">
         <v>604</v>
       </c>
-      <c r="AD13" s="362" t="s">
+      <c r="AD13" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE13" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AF13" s="362" t="s">
+      <c r="AF13" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG13" s="275" t="s">
@@ -17697,10 +17697,10 @@
       <c r="C14" s="274" t="s">
         <v>399</v>
       </c>
-      <c r="D14" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="E14" s="362" t="s">
+      <c r="D14" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="E14" s="313" t="s">
         <v>399</v>
       </c>
       <c r="F14" s="274" t="s">
@@ -17745,43 +17745,43 @@
       <c r="S14" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="T14" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="U14" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="V14" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="W14" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="X14" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y14" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z14" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA14" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB14" s="362" t="s">
+      <c r="T14" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="U14" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="V14" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="W14" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="X14" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y14" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z14" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA14" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB14" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AC14" s="275" t="s">
         <v>604</v>
       </c>
-      <c r="AD14" s="362" t="s">
+      <c r="AD14" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AE14" s="275" t="s">
         <v>399</v>
       </c>
-      <c r="AF14" s="362" t="s">
+      <c r="AF14" s="313" t="s">
         <v>399</v>
       </c>
       <c r="AG14" s="275" t="s">
@@ -17801,75 +17801,75 @@
       <c r="B15" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="357" t="s">
+      <c r="C15" s="308" t="s">
         <v>605</v>
       </c>
-      <c r="D15" s="358"/>
-      <c r="E15" s="358"/>
-      <c r="F15" s="358"/>
-      <c r="G15" s="358"/>
-      <c r="H15" s="358"/>
-      <c r="I15" s="358" t="s">
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="309"/>
+      <c r="G15" s="309"/>
+      <c r="H15" s="309"/>
+      <c r="I15" s="309" t="s">
         <v>602</v>
       </c>
-      <c r="J15" s="358" t="s">
+      <c r="J15" s="309" t="s">
         <v>283</v>
       </c>
-      <c r="K15" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="L15" s="358"/>
-      <c r="M15" s="358"/>
-      <c r="N15" s="358"/>
-      <c r="O15" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="P15" s="358"/>
-      <c r="Q15" s="358"/>
-      <c r="R15" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="S15" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="T15" s="359" t="s">
+      <c r="K15" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="L15" s="309"/>
+      <c r="M15" s="309"/>
+      <c r="N15" s="309"/>
+      <c r="O15" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="P15" s="309"/>
+      <c r="Q15" s="309"/>
+      <c r="R15" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="S15" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="T15" s="310" t="s">
         <v>603</v>
       </c>
-      <c r="U15" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="V15" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="W15" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="X15" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y15" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z15" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA15" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB15" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC15" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD15" s="358"/>
-      <c r="AE15" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF15" s="358"/>
-      <c r="AG15" s="358"/>
-      <c r="AH15" s="358"/>
-      <c r="AI15" s="360"/>
+      <c r="U15" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="V15" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="W15" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="X15" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y15" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z15" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA15" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB15" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC15" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD15" s="309"/>
+      <c r="AE15" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF15" s="309"/>
+      <c r="AG15" s="309"/>
+      <c r="AH15" s="309"/>
+      <c r="AI15" s="311"/>
       <c r="AK15" s="111"/>
     </row>
     <row r="16" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -17879,77 +17879,77 @@
       <c r="B16" s="260" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="357" t="s">
+      <c r="C16" s="308" t="s">
         <v>605</v>
       </c>
-      <c r="D16" s="358"/>
-      <c r="E16" s="358"/>
-      <c r="F16" s="358"/>
-      <c r="G16" s="358"/>
-      <c r="H16" s="358"/>
-      <c r="I16" s="358" t="s">
+      <c r="D16" s="309"/>
+      <c r="E16" s="309"/>
+      <c r="F16" s="309"/>
+      <c r="G16" s="309"/>
+      <c r="H16" s="309"/>
+      <c r="I16" s="309" t="s">
         <v>602</v>
       </c>
-      <c r="J16" s="358" t="s">
+      <c r="J16" s="309" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="L16" s="358"/>
-      <c r="M16" s="358"/>
-      <c r="N16" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="O16" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="P16" s="358"/>
-      <c r="Q16" s="358"/>
-      <c r="R16" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="S16" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="T16" s="359" t="s">
+      <c r="K16" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="L16" s="309"/>
+      <c r="M16" s="309"/>
+      <c r="N16" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="O16" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="P16" s="309"/>
+      <c r="Q16" s="309"/>
+      <c r="R16" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="S16" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="T16" s="310" t="s">
         <v>603</v>
       </c>
-      <c r="U16" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="V16" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="W16" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="X16" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y16" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z16" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA16" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB16" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC16" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD16" s="358"/>
-      <c r="AE16" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF16" s="358"/>
-      <c r="AG16" s="358"/>
-      <c r="AH16" s="358"/>
-      <c r="AI16" s="360"/>
+      <c r="U16" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="V16" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="W16" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="X16" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y16" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z16" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA16" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB16" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC16" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD16" s="309"/>
+      <c r="AE16" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF16" s="309"/>
+      <c r="AG16" s="309"/>
+      <c r="AH16" s="309"/>
+      <c r="AI16" s="311"/>
     </row>
     <row r="17" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -17958,75 +17958,75 @@
       <c r="B17" s="260" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="357" t="s">
+      <c r="C17" s="308" t="s">
         <v>605</v>
       </c>
-      <c r="D17" s="358"/>
-      <c r="E17" s="358"/>
-      <c r="F17" s="358"/>
-      <c r="G17" s="358"/>
-      <c r="H17" s="358"/>
-      <c r="I17" s="358" t="s">
+      <c r="D17" s="309"/>
+      <c r="E17" s="309"/>
+      <c r="F17" s="309"/>
+      <c r="G17" s="309"/>
+      <c r="H17" s="309"/>
+      <c r="I17" s="309" t="s">
         <v>602</v>
       </c>
-      <c r="J17" s="358" t="s">
+      <c r="J17" s="309" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="L17" s="358"/>
-      <c r="M17" s="358"/>
-      <c r="N17" s="358"/>
-      <c r="O17" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="P17" s="358"/>
-      <c r="Q17" s="358"/>
-      <c r="R17" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="S17" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="T17" s="359" t="s">
+      <c r="K17" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="L17" s="309"/>
+      <c r="M17" s="309"/>
+      <c r="N17" s="309"/>
+      <c r="O17" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="P17" s="309"/>
+      <c r="Q17" s="309"/>
+      <c r="R17" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="S17" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="T17" s="310" t="s">
         <v>603</v>
       </c>
-      <c r="U17" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="V17" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="W17" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="X17" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y17" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z17" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA17" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB17" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC17" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD17" s="358"/>
-      <c r="AE17" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF17" s="358"/>
-      <c r="AG17" s="358"/>
-      <c r="AH17" s="358"/>
-      <c r="AI17" s="360"/>
+      <c r="U17" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="V17" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="W17" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="X17" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y17" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z17" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA17" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB17" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC17" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD17" s="309"/>
+      <c r="AE17" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF17" s="309"/>
+      <c r="AG17" s="309"/>
+      <c r="AH17" s="309"/>
+      <c r="AI17" s="311"/>
     </row>
     <row r="18" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -18035,91 +18035,91 @@
       <c r="B18" s="261" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="357" t="s">
+      <c r="C18" s="308" t="s">
         <v>605</v>
       </c>
-      <c r="D18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="E18" s="358"/>
-      <c r="F18" s="358"/>
-      <c r="G18" s="358"/>
-      <c r="H18" s="358"/>
-      <c r="I18" s="358" t="s">
+      <c r="D18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="309"/>
+      <c r="H18" s="309"/>
+      <c r="I18" s="309" t="s">
         <v>602</v>
       </c>
-      <c r="J18" s="358" t="s">
+      <c r="J18" s="309" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="L18" s="358"/>
-      <c r="M18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="N18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="O18" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="P18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="R18" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="S18" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="T18" s="359" t="s">
+      <c r="K18" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="L18" s="309"/>
+      <c r="M18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="N18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="O18" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="P18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="R18" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="S18" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="T18" s="310" t="s">
         <v>603</v>
       </c>
-      <c r="U18" s="359" t="s">
+      <c r="U18" s="310" t="s">
         <v>603</v>
       </c>
-      <c r="V18" s="359" t="s">
+      <c r="V18" s="310" t="s">
         <v>603</v>
       </c>
-      <c r="W18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="X18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD18" s="358"/>
-      <c r="AE18" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AH18" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AI18" s="360"/>
+      <c r="W18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="X18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD18" s="309"/>
+      <c r="AE18" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH18" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI18" s="311"/>
     </row>
     <row r="19" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -18128,75 +18128,75 @@
       <c r="B19" s="261" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="357" t="s">
+      <c r="C19" s="308" t="s">
         <v>605</v>
       </c>
-      <c r="D19" s="358"/>
-      <c r="E19" s="358"/>
-      <c r="F19" s="358"/>
-      <c r="G19" s="358"/>
-      <c r="H19" s="358"/>
-      <c r="I19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="J19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="K19" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="L19" s="358"/>
-      <c r="M19" s="358"/>
-      <c r="N19" s="358"/>
-      <c r="O19" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="P19" s="358"/>
-      <c r="Q19" s="358"/>
-      <c r="R19" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="S19" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="T19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="U19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="V19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="W19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="X19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC19" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD19" s="358"/>
-      <c r="AE19" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF19" s="358"/>
-      <c r="AG19" s="358"/>
-      <c r="AH19" s="358"/>
-      <c r="AI19" s="360"/>
+      <c r="D19" s="309"/>
+      <c r="E19" s="309"/>
+      <c r="F19" s="309"/>
+      <c r="G19" s="309"/>
+      <c r="H19" s="309"/>
+      <c r="I19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="J19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="K19" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="L19" s="309"/>
+      <c r="M19" s="309"/>
+      <c r="N19" s="309"/>
+      <c r="O19" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="P19" s="309"/>
+      <c r="Q19" s="309"/>
+      <c r="R19" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="S19" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="T19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="U19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="V19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="W19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="X19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC19" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD19" s="309"/>
+      <c r="AE19" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF19" s="309"/>
+      <c r="AG19" s="309"/>
+      <c r="AH19" s="309"/>
+      <c r="AI19" s="311"/>
     </row>
     <row r="20" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -18205,91 +18205,91 @@
       <c r="B20" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="357" t="s">
+      <c r="C20" s="308" t="s">
         <v>605</v>
       </c>
-      <c r="D20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="E20" s="358"/>
-      <c r="F20" s="358"/>
-      <c r="G20" s="358"/>
-      <c r="H20" s="358"/>
-      <c r="I20" s="358" t="s">
+      <c r="D20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="E20" s="309"/>
+      <c r="F20" s="309"/>
+      <c r="G20" s="309"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="309" t="s">
         <v>602</v>
       </c>
-      <c r="J20" s="358" t="s">
+      <c r="J20" s="309" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="L20" s="358"/>
-      <c r="M20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="N20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="O20" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="P20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="R20" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="S20" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="T20" s="359" t="s">
+      <c r="K20" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="L20" s="309"/>
+      <c r="M20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="N20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="O20" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="P20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="R20" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="S20" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="T20" s="310" t="s">
         <v>603</v>
       </c>
-      <c r="U20" s="359" t="s">
+      <c r="U20" s="310" t="s">
         <v>603</v>
       </c>
-      <c r="V20" s="359" t="s">
+      <c r="V20" s="310" t="s">
         <v>603</v>
       </c>
-      <c r="W20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="X20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD20" s="358"/>
-      <c r="AE20" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AH20" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AI20" s="360"/>
+      <c r="W20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="X20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD20" s="309"/>
+      <c r="AE20" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH20" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI20" s="311"/>
     </row>
     <row r="21" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
@@ -18298,93 +18298,93 @@
       <c r="B21" s="261" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="308" t="s">
         <v>605</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="358"/>
-      <c r="F21" s="358"/>
-      <c r="G21" s="358" t="s">
+      <c r="D21" s="309"/>
+      <c r="E21" s="309"/>
+      <c r="F21" s="309"/>
+      <c r="G21" s="309" t="s">
         <v>608</v>
       </c>
-      <c r="H21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="I21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="J21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="K21" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="L21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="M21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="N21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="O21" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="P21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="R21" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="S21" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="T21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="U21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="V21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="W21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="X21" s="358" t="s">
+      <c r="H21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="I21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="J21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="K21" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="L21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="M21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="N21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="O21" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="P21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="R21" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="S21" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="T21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="U21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="V21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="W21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="X21" s="309" t="s">
         <v>610</v>
       </c>
-      <c r="Y21" s="358" t="s">
+      <c r="Y21" s="309" t="s">
         <v>610</v>
       </c>
-      <c r="Z21" s="358"/>
-      <c r="AA21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB21" s="359" t="s">
+      <c r="Z21" s="309"/>
+      <c r="AA21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB21" s="310" t="s">
         <v>603</v>
       </c>
-      <c r="AC21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD21" s="358"/>
-      <c r="AE21" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AH21" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AI21" s="360"/>
+      <c r="AC21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD21" s="309"/>
+      <c r="AE21" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH21" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI21" s="311"/>
     </row>
     <row r="22" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -18393,87 +18393,87 @@
       <c r="B22" s="261" t="s">
         <v>276</v>
       </c>
-      <c r="C22" s="357" t="s">
+      <c r="C22" s="308" t="s">
         <v>605</v>
       </c>
-      <c r="D22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="E22" s="358"/>
-      <c r="F22" s="358"/>
-      <c r="G22" s="358"/>
-      <c r="H22" s="358"/>
-      <c r="I22" s="358" t="s">
+      <c r="D22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="E22" s="309"/>
+      <c r="F22" s="309"/>
+      <c r="G22" s="309"/>
+      <c r="H22" s="309"/>
+      <c r="I22" s="309" t="s">
         <v>602</v>
       </c>
-      <c r="J22" s="358" t="s">
+      <c r="J22" s="309" t="s">
         <v>283</v>
       </c>
-      <c r="K22" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="L22" s="358"/>
-      <c r="M22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="N22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="O22" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="P22" s="358"/>
-      <c r="Q22" s="358"/>
-      <c r="R22" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="S22" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="T22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="U22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="V22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="W22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="X22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD22" s="358"/>
-      <c r="AE22" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AH22" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AI22" s="360"/>
+      <c r="K22" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="L22" s="309"/>
+      <c r="M22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="N22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="O22" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="P22" s="309"/>
+      <c r="Q22" s="309"/>
+      <c r="R22" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="S22" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="T22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="U22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="V22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="W22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="X22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD22" s="309"/>
+      <c r="AE22" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH22" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI22" s="311"/>
     </row>
     <row r="23" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -18482,176 +18482,176 @@
       <c r="B23" s="261" t="s">
         <v>617</v>
       </c>
-      <c r="C23" s="357" t="s">
+      <c r="C23" s="308" t="s">
         <v>605</v>
       </c>
-      <c r="D23" s="358"/>
-      <c r="E23" s="358"/>
-      <c r="F23" s="358"/>
-      <c r="G23" s="358"/>
-      <c r="H23" s="358"/>
-      <c r="I23" s="358" t="s">
+      <c r="D23" s="309"/>
+      <c r="E23" s="309"/>
+      <c r="F23" s="309"/>
+      <c r="G23" s="309"/>
+      <c r="H23" s="309"/>
+      <c r="I23" s="309" t="s">
         <v>602</v>
       </c>
-      <c r="J23" s="358" t="s">
+      <c r="J23" s="309" t="s">
         <v>611</v>
       </c>
-      <c r="K23" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="L23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="M23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="N23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="O23" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="P23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="R23" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="S23" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="T23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="U23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="V23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="W23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="X23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y23" s="358" t="s">
+      <c r="K23" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="L23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="M23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="N23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="O23" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="P23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="R23" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="S23" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="T23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="U23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="V23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="W23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="X23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y23" s="309" t="s">
         <v>610</v>
       </c>
-      <c r="Z23" s="358"/>
-      <c r="AA23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD23" s="358"/>
-      <c r="AE23" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AH23" s="358" t="s">
-        <v>399</v>
-      </c>
-      <c r="AI23" s="360"/>
+      <c r="Z23" s="309"/>
+      <c r="AA23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD23" s="309"/>
+      <c r="AE23" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH23" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI23" s="311"/>
     </row>
     <row r="24" spans="1:37" s="9" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B24" s="352" t="s">
+      <c r="B24" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="353" t="s">
+      <c r="C24" s="304" t="s">
         <v>605</v>
       </c>
-      <c r="D24" s="354"/>
-      <c r="E24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="F24" s="355"/>
-      <c r="G24" s="355"/>
-      <c r="H24" s="355"/>
-      <c r="I24" s="355" t="s">
+      <c r="D24" s="305"/>
+      <c r="E24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="F24" s="306"/>
+      <c r="G24" s="306"/>
+      <c r="H24" s="306"/>
+      <c r="I24" s="306" t="s">
         <v>602</v>
       </c>
-      <c r="J24" s="355" t="s">
+      <c r="J24" s="306" t="s">
         <v>611</v>
       </c>
-      <c r="K24" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="L24" s="355"/>
-      <c r="M24" s="355"/>
-      <c r="N24" s="355"/>
-      <c r="O24" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="P24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="R24" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="S24" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="T24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="U24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="V24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="W24" s="355" t="s">
+      <c r="K24" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="L24" s="306"/>
+      <c r="M24" s="306"/>
+      <c r="N24" s="306"/>
+      <c r="O24" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="P24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="R24" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="S24" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="T24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="U24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="V24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="W24" s="306" t="s">
         <v>610</v>
       </c>
-      <c r="X24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA24" s="355"/>
-      <c r="AB24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD24" s="355"/>
-      <c r="AE24" s="362" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="AH24" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="AI24" s="356"/>
+      <c r="X24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA24" s="306"/>
+      <c r="AB24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD24" s="306"/>
+      <c r="AE24" s="313" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH24" s="306" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI24" s="307"/>
     </row>
     <row r="25" spans="1:37" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="49"/>
@@ -18673,11 +18673,11 @@
       <c r="AE25" s="131" t="s">
         <v>524</v>
       </c>
-      <c r="AI25" s="336" t="s">
+      <c r="AI25" s="357" t="s">
         <v>609</v>
       </c>
-      <c r="AJ25" s="336"/>
-      <c r="AK25" s="336"/>
+      <c r="AJ25" s="357"/>
+      <c r="AK25" s="357"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AD26" s="256" t="s">
@@ -18931,7 +18931,7 @@
       <c r="A2" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="B2" s="363" t="s">
+      <c r="B2" s="314" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="269"/>
@@ -21000,8 +21000,8 @@
   </sheetPr>
   <dimension ref="A1:AK329"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21037,7 +21037,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="294" t="s">
         <v>488</v>
       </c>
       <c r="B2" s="88"/>
@@ -21233,10 +21233,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="346" t="s">
+      <c r="A30" s="297" t="s">
         <v>272</v>
       </c>
-      <c r="B30" s="346" t="s">
+      <c r="B30" s="297" t="s">
         <v>311</v>
       </c>
       <c r="C30" s="59" t="s">
@@ -21342,117 +21342,117 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="350" t="s">
+      <c r="A42" s="301" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="62"/>
       <c r="C42" s="62"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="351" t="s">
+      <c r="A43" s="302" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="63"/>
       <c r="C43" s="60"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="348" t="s">
+      <c r="A44" s="299" t="s">
         <v>249</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="348" t="s">
+      <c r="A45" s="299" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="62"/>
       <c r="C45" s="62"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="348" t="s">
+      <c r="A46" s="299" t="s">
         <v>431</v>
       </c>
       <c r="B46" s="62"/>
       <c r="C46" s="62"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="348" t="s">
+      <c r="A47" s="299" t="s">
         <v>436</v>
       </c>
       <c r="B47" s="62"/>
       <c r="C47" s="62"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="349" t="s">
+      <c r="A48" s="300" t="s">
         <v>278</v>
       </c>
       <c r="B48" s="62"/>
       <c r="C48" s="62"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="348" t="s">
+      <c r="A49" s="299" t="s">
         <v>438</v>
       </c>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="348" t="s">
+      <c r="A50" s="299" t="s">
         <v>472</v>
       </c>
       <c r="B50" s="62"/>
       <c r="C50" s="62"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="348" t="s">
+      <c r="A51" s="299" t="s">
         <v>435</v>
       </c>
       <c r="B51" s="62"/>
       <c r="C51" s="62"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="348" t="s">
+      <c r="A52" s="299" t="s">
         <v>437</v>
       </c>
       <c r="B52" s="62"/>
       <c r="C52" s="62"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="348"/>
+      <c r="A53" s="299"/>
       <c r="B53" s="62"/>
       <c r="C53" s="62"/>
     </row>
     <row r="54" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="350" t="s">
+      <c r="A54" s="301" t="s">
         <v>245</v>
       </c>
       <c r="B54" s="62"/>
       <c r="C54" s="62"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="351" t="s">
+      <c r="A55" s="302" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="63"/>
       <c r="C55" s="60"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="348" t="s">
+      <c r="A56" s="299" t="s">
         <v>486</v>
       </c>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="349" t="s">
+      <c r="A57" s="300" t="s">
         <v>250</v>
       </c>
       <c r="B57" s="62"/>
       <c r="C57" s="62"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="348" t="s">
+      <c r="A58" s="299" t="s">
         <v>475</v>
       </c>
       <c r="B58" s="62"/>
@@ -21464,173 +21464,173 @@
       <c r="C59" s="62"/>
     </row>
     <row r="60" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="350" t="s">
+      <c r="A60" s="301" t="s">
         <v>246</v>
       </c>
       <c r="B60" s="62"/>
       <c r="C60" s="62"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="351" t="s">
+      <c r="A61" s="302" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="63"/>
       <c r="C61" s="60"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="348" t="s">
+      <c r="A62" s="299" t="s">
         <v>249</v>
       </c>
       <c r="B62" s="62"/>
       <c r="C62" s="62"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="348" t="s">
+      <c r="A63" s="299" t="s">
         <v>470</v>
       </c>
       <c r="B63" s="62"/>
       <c r="C63" s="62"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="348" t="s">
+      <c r="A64" s="299" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="62"/>
       <c r="C64" s="62"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="348" t="s">
+      <c r="A65" s="299" t="s">
         <v>474</v>
       </c>
       <c r="B65" s="62"/>
       <c r="C65" s="62"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="348" t="s">
+      <c r="A66" s="299" t="s">
         <v>476</v>
       </c>
       <c r="B66" s="62"/>
       <c r="C66" s="62"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="348" t="s">
+      <c r="A67" s="299" t="s">
         <v>431</v>
       </c>
       <c r="B67" s="62"/>
       <c r="C67" s="62"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="348" t="s">
+      <c r="A68" s="299" t="s">
         <v>436</v>
       </c>
       <c r="B68" s="62"/>
       <c r="C68" s="62"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="348" t="s">
+      <c r="A69" s="299" t="s">
         <v>278</v>
       </c>
       <c r="B69" s="62"/>
       <c r="C69" s="62"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="348" t="s">
+      <c r="A70" s="299" t="s">
         <v>438</v>
       </c>
       <c r="B70" s="62"/>
       <c r="C70" s="62"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="348" t="s">
+      <c r="A71" s="299" t="s">
         <v>472</v>
       </c>
       <c r="B71" s="62"/>
       <c r="C71" s="62"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="348" t="s">
+      <c r="A72" s="299" t="s">
         <v>469</v>
       </c>
       <c r="B72" s="62"/>
       <c r="C72" s="62"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="348" t="s">
+      <c r="A73" s="299" t="s">
         <v>471</v>
       </c>
       <c r="B73" s="62"/>
       <c r="C73" s="62"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="348" t="s">
+      <c r="A74" s="299" t="s">
         <v>435</v>
       </c>
       <c r="B74" s="62"/>
       <c r="C74" s="62"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="348" t="s">
+      <c r="A75" s="299" t="s">
         <v>437</v>
       </c>
       <c r="B75" s="62"/>
       <c r="C75" s="62"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="348"/>
+      <c r="A76" s="299"/>
       <c r="B76" s="62"/>
       <c r="C76" s="62"/>
     </row>
     <row r="77" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="350" t="s">
+      <c r="A77" s="301" t="s">
         <v>261</v>
       </c>
       <c r="B77" s="62"/>
       <c r="C77" s="62"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="351" t="s">
+      <c r="A78" s="302" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="63"/>
       <c r="C78" s="60"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="348" t="s">
+      <c r="A79" s="299" t="s">
         <v>65</v>
       </c>
       <c r="B79" s="62"/>
       <c r="C79" s="62"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="348" t="s">
+      <c r="A80" s="299" t="s">
         <v>431</v>
       </c>
       <c r="B80" s="62"/>
       <c r="C80" s="62"/>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A81" s="348" t="s">
+      <c r="A81" s="299" t="s">
         <v>436</v>
       </c>
       <c r="B81" s="62"/>
       <c r="C81" s="62"/>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A82" s="348" t="s">
+      <c r="A82" s="299" t="s">
         <v>278</v>
       </c>
       <c r="B82" s="62"/>
       <c r="C82" s="62"/>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A83" s="348" t="s">
+      <c r="A83" s="299" t="s">
         <v>435</v>
       </c>
       <c r="B83" s="62"/>
       <c r="C83" s="62"/>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A84" s="348" t="s">
+      <c r="A84" s="299" t="s">
         <v>430</v>
       </c>
       <c r="B84" s="62"/>
@@ -21640,42 +21640,42 @@
       <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="350" t="s">
+      <c r="A86" s="301" t="s">
         <v>429</v>
       </c>
       <c r="B86" s="62"/>
       <c r="C86" s="62"/>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A87" s="351" t="s">
+      <c r="A87" s="302" t="s">
         <v>1</v>
       </c>
       <c r="B87" s="63"/>
       <c r="C87" s="60"/>
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A88" s="349" t="s">
+      <c r="A88" s="300" t="s">
         <v>432</v>
       </c>
       <c r="B88" s="48"/>
       <c r="C88" s="48"/>
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A89" s="349" t="s">
+      <c r="A89" s="300" t="s">
         <v>256</v>
       </c>
       <c r="B89" s="48"/>
       <c r="C89" s="48"/>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A90" s="349" t="s">
+      <c r="A90" s="300" t="s">
         <v>433</v>
       </c>
       <c r="B90" s="48"/>
       <c r="C90" s="48"/>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A91" s="348" t="s">
+      <c r="A91" s="299" t="s">
         <v>434</v>
       </c>
       <c r="B91" s="62"/>
@@ -21745,7 +21745,7 @@
       <c r="AK92" s="49"/>
     </row>
     <row r="93" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="350" t="s">
+      <c r="A93" s="301" t="s">
         <v>266</v>
       </c>
       <c r="B93" s="62"/>
@@ -21781,7 +21781,7 @@
       <c r="AK93" s="49"/>
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A94" s="351" t="s">
+      <c r="A94" s="302" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="63"/>
@@ -21817,7 +21817,7 @@
       <c r="AK94" s="49"/>
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A95" s="349" t="s">
+      <c r="A95" s="300" t="s">
         <v>268</v>
       </c>
       <c r="B95" s="48"/>
@@ -21853,7 +21853,7 @@
       <c r="AK95" s="49"/>
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A96" s="349" t="s">
+      <c r="A96" s="300" t="s">
         <v>439</v>
       </c>
       <c r="B96" s="48"/>
@@ -21889,7 +21889,7 @@
       <c r="AK96" s="49"/>
     </row>
     <row r="97" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A97" s="348" t="s">
+      <c r="A97" s="299" t="s">
         <v>440</v>
       </c>
       <c r="B97" s="62"/>
@@ -21925,7 +21925,7 @@
       <c r="AK97" s="49"/>
     </row>
     <row r="98" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A98" s="348"/>
+      <c r="A98" s="299"/>
       <c r="B98" s="62"/>
       <c r="C98" s="62"/>
       <c r="I98" s="43"/>
@@ -21959,7 +21959,7 @@
       <c r="AK98" s="49"/>
     </row>
     <row r="99" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="350" t="s">
+      <c r="A99" s="301" t="s">
         <v>276</v>
       </c>
       <c r="B99" s="62"/>
@@ -21995,7 +21995,7 @@
       <c r="AK99" s="49"/>
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A100" s="351" t="s">
+      <c r="A100" s="302" t="s">
         <v>1</v>
       </c>
       <c r="B100" s="63"/>
@@ -22031,7 +22031,7 @@
       <c r="AK100" s="49"/>
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A101" s="348" t="s">
+      <c r="A101" s="299" t="s">
         <v>249</v>
       </c>
       <c r="B101" s="62"/>
@@ -22067,7 +22067,7 @@
       <c r="AK101" s="49"/>
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A102" s="348" t="s">
+      <c r="A102" s="299" t="s">
         <v>431</v>
       </c>
       <c r="B102" s="62"/>
@@ -22103,7 +22103,7 @@
       <c r="AK102" s="49"/>
     </row>
     <row r="103" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A103" s="348" t="s">
+      <c r="A103" s="299" t="s">
         <v>438</v>
       </c>
       <c r="B103" s="62"/>
@@ -22139,7 +22139,7 @@
       <c r="AK103" s="49"/>
     </row>
     <row r="104" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A104" s="348" t="s">
+      <c r="A104" s="299" t="s">
         <v>278</v>
       </c>
       <c r="B104" s="62"/>
@@ -22175,7 +22175,7 @@
       <c r="AK104" s="49"/>
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A105" s="348" t="s">
+      <c r="A105" s="299" t="s">
         <v>436</v>
       </c>
       <c r="B105" s="62"/>
@@ -22211,7 +22211,7 @@
       <c r="AK105" s="49"/>
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A106" s="348" t="s">
+      <c r="A106" s="299" t="s">
         <v>437</v>
       </c>
       <c r="B106" s="62"/>
@@ -22247,7 +22247,7 @@
       <c r="AK106" s="49"/>
     </row>
     <row r="107" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A107" s="348"/>
+      <c r="A107" s="299"/>
       <c r="B107" s="62"/>
       <c r="C107" s="62"/>
       <c r="I107" s="43"/>
@@ -22281,7 +22281,7 @@
       <c r="AK107" s="49"/>
     </row>
     <row r="108" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="350" t="s">
+      <c r="A108" s="301" t="s">
         <v>277</v>
       </c>
       <c r="B108" s="62"/>
@@ -22317,7 +22317,7 @@
       <c r="AK108" s="49"/>
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A109" s="351" t="s">
+      <c r="A109" s="302" t="s">
         <v>1</v>
       </c>
       <c r="B109" s="63"/>
@@ -22353,7 +22353,7 @@
       <c r="AK109" s="49"/>
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A110" s="348" t="s">
+      <c r="A110" s="299" t="s">
         <v>447</v>
       </c>
       <c r="B110" s="62"/>
@@ -22389,7 +22389,7 @@
       <c r="AK110" s="49"/>
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A111" s="348" t="s">
+      <c r="A111" s="299" t="s">
         <v>448</v>
       </c>
       <c r="B111" s="62"/>
@@ -22425,7 +22425,7 @@
       <c r="AK111" s="49"/>
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A112" s="348" t="s">
+      <c r="A112" s="299" t="s">
         <v>455</v>
       </c>
       <c r="B112" s="62"/>
@@ -22461,7 +22461,7 @@
       <c r="AK112" s="49"/>
     </row>
     <row r="113" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A113" s="348" t="s">
+      <c r="A113" s="299" t="s">
         <v>436</v>
       </c>
       <c r="B113" s="62"/>
@@ -22497,7 +22497,7 @@
       <c r="AK113" s="49"/>
     </row>
     <row r="114" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A114" s="348" t="s">
+      <c r="A114" s="299" t="s">
         <v>278</v>
       </c>
       <c r="B114" s="62"/>
@@ -22533,7 +22533,7 @@
       <c r="AK114" s="49"/>
     </row>
     <row r="115" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A115" s="348" t="s">
+      <c r="A115" s="299" t="s">
         <v>435</v>
       </c>
       <c r="B115" s="62"/>
@@ -22569,7 +22569,7 @@
       <c r="AK115" s="49"/>
     </row>
     <row r="116" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A116" s="348" t="s">
+      <c r="A116" s="299" t="s">
         <v>430</v>
       </c>
       <c r="B116" s="62"/>
@@ -22711,7 +22711,7 @@
       <c r="AK119" s="49"/>
     </row>
     <row r="120" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A120" s="348" t="s">
+      <c r="A120" s="299" t="s">
         <v>443</v>
       </c>
       <c r="B120" s="48"/>
@@ -22747,7 +22747,7 @@
       <c r="AK120" s="49"/>
     </row>
     <row r="121" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A121" s="348" t="s">
+      <c r="A121" s="299" t="s">
         <v>444</v>
       </c>
       <c r="B121" s="48"/>
@@ -22783,7 +22783,7 @@
       <c r="AK121" s="49"/>
     </row>
     <row r="122" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A122" s="348" t="s">
+      <c r="A122" s="299" t="s">
         <v>65</v>
       </c>
       <c r="B122" s="48"/>
@@ -22819,7 +22819,7 @@
       <c r="AK122" s="49"/>
     </row>
     <row r="123" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A123" s="348" t="s">
+      <c r="A123" s="299" t="s">
         <v>458</v>
       </c>
       <c r="B123" s="48"/>
@@ -22855,182 +22855,182 @@
       <c r="AK123" s="49"/>
     </row>
     <row r="124" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A124" s="348" t="s">
+      <c r="A124" s="299" t="s">
         <v>448</v>
       </c>
       <c r="B124" s="62"/>
       <c r="C124" s="62"/>
     </row>
     <row r="125" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A125" s="348" t="s">
+      <c r="A125" s="299" t="s">
         <v>473</v>
       </c>
       <c r="B125" s="62"/>
       <c r="C125" s="62"/>
     </row>
     <row r="126" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A126" s="348" t="s">
+      <c r="A126" s="299" t="s">
         <v>454</v>
       </c>
       <c r="B126" s="62"/>
       <c r="C126" s="62"/>
     </row>
     <row r="127" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A127" s="348" t="s">
+      <c r="A127" s="299" t="s">
         <v>455</v>
       </c>
       <c r="B127" s="62"/>
       <c r="C127" s="62"/>
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A128" s="348" t="s">
+      <c r="A128" s="299" t="s">
         <v>451</v>
       </c>
       <c r="B128" s="62"/>
       <c r="C128" s="62"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="348" t="s">
+      <c r="A129" s="299" t="s">
         <v>452</v>
       </c>
       <c r="B129" s="62"/>
       <c r="C129" s="62"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="349" t="s">
+      <c r="A130" s="300" t="s">
         <v>436</v>
       </c>
       <c r="B130" s="62"/>
       <c r="C130" s="62"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="349" t="s">
+      <c r="A131" s="300" t="s">
         <v>529</v>
       </c>
       <c r="B131" s="62"/>
       <c r="C131" s="62"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="349" t="s">
+      <c r="A132" s="300" t="s">
         <v>278</v>
       </c>
       <c r="B132" s="62"/>
       <c r="C132" s="62"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="349" t="s">
+      <c r="A133" s="300" t="s">
         <v>528</v>
       </c>
       <c r="B133" s="62"/>
       <c r="C133" s="62"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="348" t="s">
+      <c r="A134" s="299" t="s">
         <v>442</v>
       </c>
       <c r="B134" s="62"/>
       <c r="C134" s="62"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="348" t="s">
+      <c r="A135" s="299" t="s">
         <v>469</v>
       </c>
       <c r="B135" s="62"/>
       <c r="C135" s="62"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="348" t="s">
+      <c r="A136" s="299" t="s">
         <v>527</v>
       </c>
       <c r="B136" s="62"/>
       <c r="C136" s="62"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="348" t="s">
+      <c r="A137" s="299" t="s">
         <v>459</v>
       </c>
       <c r="B137" s="62"/>
       <c r="C137" s="62"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="348" t="s">
+      <c r="A138" s="299" t="s">
         <v>450</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="62"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="348" t="s">
+      <c r="A139" s="299" t="s">
         <v>449</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="62"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="349" t="s">
+      <c r="A140" s="300" t="s">
         <v>441</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="62"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="348" t="s">
+      <c r="A141" s="299" t="s">
         <v>456</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="62"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="348" t="s">
+      <c r="A142" s="299" t="s">
         <v>468</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="62"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="348" t="s">
+      <c r="A143" s="299" t="s">
         <v>457</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="62"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="348" t="s">
+      <c r="A144" s="299" t="s">
         <v>446</v>
       </c>
       <c r="B144" s="62"/>
       <c r="C144" s="62"/>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A145" s="348" t="s">
+      <c r="A145" s="299" t="s">
         <v>445</v>
       </c>
       <c r="B145" s="62"/>
       <c r="C145" s="62"/>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A146" s="348" t="s">
+      <c r="A146" s="299" t="s">
         <v>435</v>
       </c>
       <c r="B146" s="62"/>
       <c r="C146" s="62"/>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A147" s="348" t="s">
+      <c r="A147" s="299" t="s">
         <v>453</v>
       </c>
       <c r="B147" s="62"/>
       <c r="C147" s="62"/>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A148" s="349" t="b">
+      <c r="A148" s="300" t="b">
         <v>1</v>
       </c>
       <c r="B148" s="62"/>
       <c r="C148" s="62"/>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A149" s="348" t="s">
+      <c r="A149" s="299" t="s">
         <v>430</v>
       </c>
       <c r="B149" s="62"/>
@@ -23042,18 +23042,18 @@
       </c>
     </row>
     <row r="152" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="347" t="s">
+      <c r="A152" s="298" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="344" t="s">
+      <c r="A153" s="295" t="s">
         <v>62</v>
       </c>
       <c r="B153" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C153" s="344" t="s">
+      <c r="C153" s="295" t="s">
         <v>80</v>
       </c>
       <c r="D153" s="47" t="s">
@@ -23125,7 +23125,7 @@
       <c r="B154" s="46">
         <v>1</v>
       </c>
-      <c r="C154" s="345" t="s">
+      <c r="C154" s="296" t="s">
         <v>334</v>
       </c>
       <c r="D154" s="46">
@@ -23184,7 +23184,7 @@
       <c r="B155" s="46">
         <v>2</v>
       </c>
-      <c r="C155" s="345" t="s">
+      <c r="C155" s="296" t="s">
         <v>81</v>
       </c>
       <c r="D155" s="46">
@@ -23243,7 +23243,7 @@
       <c r="B156" s="46">
         <v>3</v>
       </c>
-      <c r="C156" s="345" t="s">
+      <c r="C156" s="296" t="s">
         <v>300</v>
       </c>
       <c r="D156" s="46">
@@ -23294,7 +23294,7 @@
       <c r="B157" s="46">
         <v>4</v>
       </c>
-      <c r="C157" s="345" t="s">
+      <c r="C157" s="296" t="s">
         <v>335</v>
       </c>
       <c r="D157" s="46">
@@ -23339,7 +23339,7 @@
       <c r="B158" s="46">
         <v>5</v>
       </c>
-      <c r="C158" s="345" t="s">
+      <c r="C158" s="296" t="s">
         <v>83</v>
       </c>
       <c r="D158" s="46">
@@ -23384,7 +23384,7 @@
       <c r="B159" s="46">
         <v>7.5</v>
       </c>
-      <c r="C159" s="345" t="s">
+      <c r="C159" s="296" t="s">
         <v>275</v>
       </c>
       <c r="D159" s="46">
@@ -23413,7 +23413,7 @@
       <c r="B160" s="46">
         <v>8.5</v>
       </c>
-      <c r="C160" s="345" t="s">
+      <c r="C160" s="296" t="s">
         <v>336</v>
       </c>
       <c r="D160" s="46">
@@ -23442,7 +23442,7 @@
       <c r="B161" s="46">
         <v>10</v>
       </c>
-      <c r="C161" s="345" t="s">
+      <c r="C161" s="296" t="s">
         <v>82</v>
       </c>
       <c r="D161" s="46">
@@ -23468,7 +23468,7 @@
       <c r="B162" s="46">
         <v>12.5</v>
       </c>
-      <c r="C162" s="345" t="s">
+      <c r="C162" s="296" t="s">
         <v>339</v>
       </c>
       <c r="D162" s="46">
@@ -23495,7 +23495,7 @@
       <c r="B163" s="46">
         <v>15</v>
       </c>
-      <c r="C163" s="345" t="s">
+      <c r="C163" s="296" t="s">
         <v>337</v>
       </c>
       <c r="D163" s="46">
@@ -23522,7 +23522,7 @@
       <c r="B164" s="46">
         <v>20</v>
       </c>
-      <c r="C164" s="345" t="s">
+      <c r="C164" s="296" t="s">
         <v>338</v>
       </c>
       <c r="E164" s="46" t="s">
@@ -23540,7 +23540,7 @@
       <c r="B165" s="46">
         <v>25</v>
       </c>
-      <c r="C165" s="345" t="s">
+      <c r="C165" s="296" t="s">
         <v>501</v>
       </c>
       <c r="E165" s="46" t="s">
@@ -23558,7 +23558,7 @@
       <c r="B166" s="46">
         <v>30</v>
       </c>
-      <c r="C166" s="345" t="s">
+      <c r="C166" s="296" t="s">
         <v>502</v>
       </c>
       <c r="E166" s="46" t="s">
@@ -24438,13 +24438,13 @@
     <sortCondition ref="C31"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{0F42614E-DC8C-45AE-A084-2485C4FA06F7}" topLeftCell="A28">
-      <selection activeCell="C93" sqref="C93"/>
+    <customSheetView guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" topLeftCell="A133">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{1C71E020-84ED-48AF-A749-6E884FFF5EF5}" topLeftCell="A133">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <customSheetView guid="{0F42614E-DC8C-45AE-A084-2485C4FA06F7}" topLeftCell="A28">
+      <selection activeCell="C93" sqref="C93"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" verticalDpi="599" r:id="rId2"/>
     </customSheetView>
@@ -24458,7 +24458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
@@ -24470,7 +24470,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="294" t="s">
         <v>488</v>
       </c>
       <c r="B1" s="60" t="s">
@@ -24485,7 +24485,7 @@
         <v>387</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>334</v>
+        <v>501</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
@@ -24507,7 +24507,7 @@
         <v>382</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
         <v>301</v>
@@ -24518,7 +24518,7 @@
         <v>412</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>335</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>530</v>
@@ -24529,7 +24529,7 @@
         <v>388</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>83</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
         <v>299</v>
@@ -24540,7 +24540,7 @@
         <v>413</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="C7" t="s">
         <v>477</v>
@@ -24573,7 +24573,7 @@
         <v>384</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
         <v>300</v>
@@ -24584,7 +24584,7 @@
         <v>390</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -24592,7 +24592,7 @@
         <v>416</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -24600,7 +24600,7 @@
         <v>417</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>501</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -24608,7 +24608,7 @@
         <v>418</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>502</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -24662,6 +24662,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:B14">
+    <sortCondition ref="B2:B14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>